--- a/xlsx/country_comparison/radical_redistr_dem_share.xlsx
+++ b/xlsx/country_comparison/radical_redistr_dem_share.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t xml:space="preserve">Tertiary diploma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rural urbanicity</t>
   </si>
   <si>
     <t xml:space="preserve">Cities urbanicity</t>
@@ -461,13 +458,10 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
         <v>0.693991148793208</v>
@@ -494,27 +488,24 @@
         <v>0.666935249022783</v>
       </c>
       <c r="J2" t="n">
-        <v>0.668621423096941</v>
+        <v>0.675287886234969</v>
       </c>
       <c r="K2" t="n">
-        <v>0.675287886234969</v>
+        <v>0.770543255578696</v>
       </c>
       <c r="L2" t="n">
-        <v>0.770543255578696</v>
+        <v>0.69748505550983</v>
       </c>
       <c r="M2" t="n">
-        <v>0.69748505550983</v>
+        <v>0.655526826869863</v>
       </c>
       <c r="N2" t="n">
-        <v>0.655526826869863</v>
-      </c>
-      <c r="O2" t="n">
         <v>0.672272956939517</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
         <v>0.641501546421187</v>
@@ -541,27 +532,24 @@
         <v>0.592166655313536</v>
       </c>
       <c r="J3" t="n">
-        <v>0.64482476452815</v>
+        <v>0.60879447383151</v>
       </c>
       <c r="K3" t="n">
-        <v>0.60879447383151</v>
+        <v>0.720397998338585</v>
       </c>
       <c r="L3" t="n">
-        <v>0.720397998338585</v>
+        <v>0.643153010609349</v>
       </c>
       <c r="M3" t="n">
-        <v>0.643153010609349</v>
+        <v>0.596876388666675</v>
       </c>
       <c r="N3" t="n">
-        <v>0.596876388666675</v>
-      </c>
-      <c r="O3" t="n">
         <v>0.614858564320855</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
         <v>0.680815013747804</v>
@@ -588,27 +576,24 @@
         <v>0.698035407271894</v>
       </c>
       <c r="J4" t="n">
-        <v>0.625751850586694</v>
+        <v>0.68060505303262</v>
       </c>
       <c r="K4" t="n">
-        <v>0.68060505303262</v>
+        <v>0.705805064704571</v>
       </c>
       <c r="L4" t="n">
-        <v>0.705805064704571</v>
+        <v>0.674494355468552</v>
       </c>
       <c r="M4" t="n">
-        <v>0.674494355468552</v>
+        <v>0.670759601185459</v>
       </c>
       <c r="N4" t="n">
-        <v>0.670759601185459</v>
-      </c>
-      <c r="O4" t="n">
         <v>0.653274937734425</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>0.704960018034767</v>
@@ -635,27 +620,24 @@
         <v>0.669098811683664</v>
       </c>
       <c r="J5" t="n">
-        <v>0.673163841818067</v>
+        <v>0.662588482404981</v>
       </c>
       <c r="K5" t="n">
-        <v>0.662588482404981</v>
+        <v>0.756241962685111</v>
       </c>
       <c r="L5" t="n">
-        <v>0.756241962685111</v>
+        <v>0.705538252739666</v>
       </c>
       <c r="M5" t="n">
-        <v>0.705538252739666</v>
+        <v>0.676488889722822</v>
       </c>
       <c r="N5" t="n">
-        <v>0.676488889722822</v>
-      </c>
-      <c r="O5" t="n">
         <v>0.677155588440181</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
         <v>0.675595447215337</v>
@@ -682,27 +664,24 @@
         <v>0.678716565717274</v>
       </c>
       <c r="J6" t="n">
-        <v>0.659855296116112</v>
+        <v>0.670986680941442</v>
       </c>
       <c r="K6" t="n">
-        <v>0.670986680941442</v>
+        <v>0.776798227194393</v>
       </c>
       <c r="L6" t="n">
-        <v>0.776798227194393</v>
+        <v>0.679547321534742</v>
       </c>
       <c r="M6" t="n">
-        <v>0.679547321534742</v>
+        <v>0.619592562860024</v>
       </c>
       <c r="N6" t="n">
-        <v>0.619592562860024</v>
-      </c>
-      <c r="O6" t="n">
         <v>0.669386523303174</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
         <v>0.682631646934764</v>
@@ -729,27 +708,24 @@
         <v>0.700251829664994</v>
       </c>
       <c r="J7" t="n">
-        <v>0.666895090283469</v>
+        <v>0.682133779794589</v>
       </c>
       <c r="K7" t="n">
-        <v>0.682133779794589</v>
+        <v>0.800503902667551</v>
       </c>
       <c r="L7" t="n">
-        <v>0.800503902667551</v>
+        <v>0.672083948987041</v>
       </c>
       <c r="M7" t="n">
-        <v>0.672083948987041</v>
+        <v>0.622191830208474</v>
       </c>
       <c r="N7" t="n">
-        <v>0.622191830208474</v>
-      </c>
-      <c r="O7" t="n">
         <v>0.669028637154738</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
         <v>0.451810364536854</v>
@@ -776,27 +752,24 @@
         <v>0.460377905052401</v>
       </c>
       <c r="J8" t="n">
-        <v>0.393343682271775</v>
+        <v>0.4642429399944</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4642429399944</v>
+        <v>0.549548004342811</v>
       </c>
       <c r="L8" t="n">
-        <v>0.549548004342811</v>
+        <v>0.471622434032772</v>
       </c>
       <c r="M8" t="n">
-        <v>0.471622434032772</v>
+        <v>0.392931387038467</v>
       </c>
       <c r="N8" t="n">
-        <v>0.392931387038467</v>
-      </c>
-      <c r="O8" t="n">
         <v>0.43981372093893</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
         <v>0.591975291077805</v>
@@ -823,21 +796,18 @@
         <v>0.616319526961522</v>
       </c>
       <c r="J9" t="n">
-        <v>0.525158404998299</v>
+        <v>0.605429857937932</v>
       </c>
       <c r="K9" t="n">
-        <v>0.605429857937932</v>
+        <v>0.742232091806388</v>
       </c>
       <c r="L9" t="n">
-        <v>0.742232091806388</v>
+        <v>0.597921967599122</v>
       </c>
       <c r="M9" t="n">
-        <v>0.597921967599122</v>
+        <v>0.500962528868416</v>
       </c>
       <c r="N9" t="n">
-        <v>0.500962528868416</v>
-      </c>
-      <c r="O9" t="n">
         <v>0.585261475925774</v>
       </c>
     </row>
